--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1260,14 +1333,20 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,14 +1456,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,14 +2152,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2003,16 +2176,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,19 +2334,25 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2181,14 +2378,20 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,14 +2402,14 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2223,16 +2426,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,11 +2531,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,14 +2802,14 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2575,16 +2826,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,10 +2948,10 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,31 +3024,37 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3324,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,16 +3594,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F72" s="3">
         <v>-800</v>
@@ -3271,10 +3618,10 @@
         <v>-800</v>
       </c>
       <c r="H72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J72" s="3">
         <v>-700</v>
@@ -3289,16 +3636,22 @@
         <v>-700</v>
       </c>
       <c r="N72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,16 +3794,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -3450,10 +3821,10 @@
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -3465,16 +3836,22 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,14 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4128,10 +4587,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,17 +4827,17 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,14 +1376,17 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1462,11 +1508,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2158,11 +2245,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2182,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,14 +2483,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2408,11 +2510,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2432,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2537,11 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2808,11 +2934,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2832,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +3020,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2954,7 +3088,7 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,22 +3182,22 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,22 +3500,22 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3612,7 +3786,7 @@
         <v>-900</v>
       </c>
       <c r="F72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G72" s="3">
         <v>-800</v>
@@ -3624,7 +3798,7 @@
         <v>-800</v>
       </c>
       <c r="J72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K72" s="3">
         <v>-700</v>
@@ -3642,7 +3816,7 @@
         <v>-700</v>
       </c>
       <c r="P72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q72" s="3">
         <v>-600</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3812,7 +3998,7 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -3827,7 +4013,7 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -3842,7 +4028,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,14 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,10 +4823,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4833,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,14 +1416,17 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,11 +1557,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,11 +2335,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2272,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2513,11 +2615,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2537,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2648,11 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2937,11 +3063,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2961,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -3091,7 +3225,7 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3185,22 +3325,22 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3503,22 +3661,22 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3789,7 +3963,7 @@
         <v>-900</v>
       </c>
       <c r="G72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H72" s="3">
         <v>-800</v>
@@ -3801,7 +3975,7 @@
         <v>-800</v>
       </c>
       <c r="K72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="L72" s="3">
         <v>-700</v>
@@ -3819,7 +3993,7 @@
         <v>-700</v>
       </c>
       <c r="Q72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="R72" s="3">
         <v>-600</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4001,7 +4187,7 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4016,7 +4202,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4031,7 +4217,7 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4826,10 +5056,13 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5082,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,14 +1492,20 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1560,14 +1651,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1808,14 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,38 +1952,38 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2338,14 +2511,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2362,16 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,14 +2785,20 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2618,14 +2821,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2642,16 +2845,22 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,11 +2974,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3066,14 +3317,14 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3090,16 +3341,22 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,25 +3401,27 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,10 +3474,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3228,10 +3495,10 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3254,16 +3521,22 @@
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3310,16 +3583,22 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3328,25 +3607,25 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
-        <v>200</v>
-      </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +3955,22 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -3664,25 +3979,25 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
-        <v>200</v>
-      </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,16 +4289,22 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F72" s="3">
         <v>-900</v>
@@ -3966,10 +4313,10 @@
         <v>-900</v>
       </c>
       <c r="H72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J72" s="3">
         <v>-800</v>
@@ -3978,10 +4325,10 @@
         <v>-800</v>
       </c>
       <c r="L72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="M72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="N72" s="3">
         <v>-700</v>
@@ -3996,16 +4343,22 @@
         <v>-700</v>
       </c>
       <c r="R72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="T72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4537,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -4190,10 +4561,10 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4205,10 +4576,10 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4220,16 +4591,22 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4473,14 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5059,10 +5518,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5331,17 +5822,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,14 +1572,20 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1657,14 +1749,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1918,14 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,38 +2080,38 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2326,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2517,14 +2691,14 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2541,16 +2715,22 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2791,14 +2989,20 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2827,14 +3031,14 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2851,16 +3055,22 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2980,11 +3196,17 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3323,14 +3575,14 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3347,16 +3599,22 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,19 +3677,19 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,10 +3748,10 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3501,10 +3769,10 @@
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,10 +3813,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3589,22 +3863,28 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3613,25 +3893,25 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4271,28 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3985,25 +4301,25 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
-        <v>200</v>
-      </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,22 +4637,28 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E72" s="3">
         <v>-1000</v>
       </c>
       <c r="F72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H72" s="3">
         <v>-900</v>
@@ -4319,10 +4667,10 @@
         <v>-900</v>
       </c>
       <c r="J72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="L72" s="3">
         <v>-800</v>
@@ -4331,10 +4679,10 @@
         <v>-800</v>
       </c>
       <c r="N72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="O72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
@@ -4349,16 +4697,22 @@
         <v>-700</v>
       </c>
       <c r="T72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="U72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="V72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,22 +4909,28 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -4567,10 +4939,10 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4582,10 +4954,10 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4597,16 +4969,22 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4876,14 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5524,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5828,17 +6320,17 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1578,14 +1614,17 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
+      <c r="W21" s="3">
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1755,11 +1800,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1975,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,11 +2146,11 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2098,11 +2158,11 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2697,11 +2783,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2721,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2995,14 +3093,17 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3037,11 +3138,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3061,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3202,11 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3581,11 +3706,11 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3605,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3683,16 +3813,16 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3887,7 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3775,7 +3908,7 @@
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3819,7 +3955,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4017,7 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -3887,7 +4026,7 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -3899,22 +4038,22 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,7 +4443,7 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -4295,7 +4452,7 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -4307,22 +4464,22 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,7 +4825,7 @@
         <v>-1100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F72" s="3">
         <v>-1000</v>
@@ -4661,7 +4834,7 @@
         <v>-1000</v>
       </c>
       <c r="H72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I72" s="3">
         <v>-900</v>
@@ -4673,7 +4846,7 @@
         <v>-900</v>
       </c>
       <c r="L72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="M72" s="3">
         <v>-800</v>
@@ -4685,7 +4858,7 @@
         <v>-800</v>
       </c>
       <c r="P72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="Q72" s="3">
         <v>-700</v>
@@ -4703,7 +4876,7 @@
         <v>-700</v>
       </c>
       <c r="V72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="W72" s="3">
         <v>-600</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,7 +5109,7 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
@@ -4933,7 +5118,7 @@
         <v>-500</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -4945,7 +5130,7 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4960,7 +5145,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4975,7 +5160,7 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5280,14 +5478,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6326,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +847,17 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +927,17 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1007,17 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1043,11 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1117,17 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1197,17 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1390,11 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1464,17 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,8 +1544,17 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1580,11 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1654,17 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,14 +1728,23 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1814,17 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1765,8 +1894,17 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,8 +1941,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1812,8 +1950,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1836,8 +1974,17 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2054,17 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1978,8 +2134,17 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2214,17 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,37 +2294,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2158,11 +2341,11 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2170,11 +2353,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
@@ -2182,8 +2365,8 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
@@ -2191,8 +2374,17 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2454,17 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2534,17 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2614,17 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2475,8 +2694,17 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2774,17 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2617,84 +2854,102 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2975,11 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +3005,11 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2786,17 +3047,17 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2810,16 +3071,25 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3159,17 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3239,17 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3319,17 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3096,14 +3393,23 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3141,17 +3447,17 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3165,16 +3471,25 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,19 +3559,28 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3312,11 +3636,20 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3719,17 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3799,17 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3879,17 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3959,17 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +4039,17 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3709,17 +4087,17 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3733,16 +4111,25 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4155,11 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4185,11 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3816,7 +4209,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3828,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3866,8 +4259,17 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3890,13 +4292,13 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -3911,13 +4313,13 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3937,8 +4339,17 @@
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3958,13 +4369,13 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4008,43 +4419,52 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -4056,13 +4476,13 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -4079,8 +4499,17 @@
       <c r="Y60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4579,17 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4659,17 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4739,17 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4819,17 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,43 +4899,52 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -4482,13 +4956,13 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4505,8 +4979,17 @@
       <c r="Y66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +5015,11 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +5089,17 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5169,17 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5249,17 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,58 +5329,67 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E72" s="3">
         <v>-1100</v>
       </c>
       <c r="F72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-900</v>
       </c>
       <c r="L72" s="3">
         <v>-900</v>
       </c>
       <c r="M72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="N72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="O72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="P72" s="3">
         <v>-800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="R72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="S72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="T72" s="3">
         <v>-700</v>
@@ -4879,16 +5401,25 @@
         <v>-700</v>
       </c>
       <c r="W72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5489,17 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5569,17 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,46 +5649,55 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
       </c>
       <c r="F76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5148,13 +5706,13 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -5163,16 +5721,25 @@
         <v>-200</v>
       </c>
       <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5809,102 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5389,8 +5974,17 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +6010,11 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5481,14 +6078,23 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +6164,17 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6244,17 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6324,17 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6404,17 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6484,17 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6564,17 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6600,11 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6754,17 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6834,17 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6222,10 +6912,19 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6950,11 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +7024,17 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +7104,17 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +7184,17 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7264,17 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6574,20 +7312,20 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +7344,17 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7424,17 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7502,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1526,14 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,14 +1810,20 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1950,14 +2041,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2246,14 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,11 +2450,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2341,38 +2462,38 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3056,14 +3229,14 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -3080,16 +3253,22 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3402,14 +3599,20 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3456,14 +3659,14 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3480,16 +3683,22 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,11 +3797,11 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3645,11 +3860,17 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4096,14 +4347,14 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -4120,16 +4371,22 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4218,19 +4479,19 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4301,10 +4568,10 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -4322,10 +4589,10 @@
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -4348,16 +4615,22 @@
       <c r="AB58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -4378,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4428,8 +4701,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,10 +4716,10 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -4449,19 +4728,19 @@
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
@@ -4470,25 +4749,25 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
-        <v>200</v>
-      </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,10 +5232,10 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
@@ -4929,19 +5244,19 @@
         <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
@@ -4950,25 +5265,25 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
-        <v>200</v>
-      </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,10 +5694,10 @@
         <v>-1200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G72" s="3">
         <v>-1100</v>
@@ -5359,19 +5706,19 @@
         <v>-1100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
       </c>
       <c r="L72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="M72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="N72" s="3">
         <v>-900</v>
@@ -5380,10 +5727,10 @@
         <v>-900</v>
       </c>
       <c r="P72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Q72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="R72" s="3">
         <v>-800</v>
@@ -5392,10 +5739,10 @@
         <v>-800</v>
       </c>
       <c r="T72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="U72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="V72" s="3">
         <v>-700</v>
@@ -5410,16 +5757,22 @@
         <v>-700</v>
       </c>
       <c r="Z72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="AA72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="AB72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,10 +6038,10 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -5679,19 +6050,19 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
       </c>
       <c r="L76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
@@ -5700,10 +6071,10 @@
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -5715,10 +6086,10 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
@@ -5730,16 +6101,22 @@
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6408,15 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -6087,14 +6484,20 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6921,10 +7380,16 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7321,17 +7812,17 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BOTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>BOTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,16 +1770,19 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1816,14 +1853,17 @@
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
+      <c r="AC21" s="3">
+        <v>0</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2047,11 +2093,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2252,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2456,8 +2517,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2468,11 +2529,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2480,11 +2541,11 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3235,11 +3322,11 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -3259,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3605,14 +3704,17 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3665,11 +3767,11 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3689,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3">
         <v>100</v>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3803,8 +3911,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3866,11 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4353,11 +4479,11 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -4377,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4485,16 +4616,16 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4574,7 +4708,7 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -4595,7 +4729,7 @@
         <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,7 +4770,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -4657,7 +4794,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4722,7 +4862,7 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -4734,7 +4874,7 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -4743,7 +4883,7 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -4755,22 +4895,22 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
       </c>
       <c r="W60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5238,7 +5396,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
@@ -5250,7 +5408,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -5259,7 +5417,7 @@
         <v>500</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -5271,22 +5429,22 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
       </c>
       <c r="W66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5700,7 +5874,7 @@
         <v>-1200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H72" s="3">
         <v>-1100</v>
@@ -5712,7 +5886,7 @@
         <v>-1100</v>
       </c>
       <c r="K72" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="L72" s="3">
         <v>-1000</v>
@@ -5721,7 +5895,7 @@
         <v>-1000</v>
       </c>
       <c r="N72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="O72" s="3">
         <v>-900</v>
@@ -5733,7 +5907,7 @@
         <v>-900</v>
       </c>
       <c r="R72" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="S72" s="3">
         <v>-800</v>
@@ -5745,7 +5919,7 @@
         <v>-800</v>
       </c>
       <c r="V72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="W72" s="3">
         <v>-700</v>
@@ -5763,7 +5937,7 @@
         <v>-700</v>
       </c>
       <c r="AB72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="AC72" s="3">
         <v>-600</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6044,7 +6230,7 @@
         <v>-700</v>
       </c>
       <c r="G76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H76" s="3">
         <v>-600</v>
@@ -6056,7 +6242,7 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
@@ -6065,7 +6251,7 @@
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -6077,7 +6263,7 @@
         <v>-400</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -6092,7 +6278,7 @@
         <v>-300</v>
       </c>
       <c r="W76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
@@ -6107,7 +6293,7 @@
         <v>-200</v>
       </c>
       <c r="AB76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC76" s="3">
         <v>-100</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,16 +6608,17 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -6490,14 +6689,17 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
+      <c r="AC83" s="3">
+        <v>0</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7386,10 +7616,13 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7818,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
